--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2001253.86958666</v>
+        <v>-2003822.293025607</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -1379,13 +1379,13 @@
         <v>355.0091537477815</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9548294172311</v>
       </c>
       <c r="G11" t="n">
         <v>384.0005093289731</v>
       </c>
       <c r="H11" t="n">
-        <v>203.3460308566805</v>
+        <v>61.16579047100791</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26654546369551</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3197523929327</v>
       </c>
       <c r="X11" t="n">
         <v>342.8098843539887</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01093634556702</v>
+        <v>62.01093634556701</v>
       </c>
       <c r="S13" t="n">
         <v>162.8478090069616</v>
@@ -1585,10 +1585,10 @@
         <v>259.2906218811326</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2164269993477</v>
+        <v>137.5668001436479</v>
       </c>
       <c r="W13" t="n">
-        <v>171.9521551564112</v>
+        <v>259.6017820121107</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8126253390002</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>338.3516754465272</v>
       </c>
       <c r="D14" t="n">
-        <v>193.5781117976799</v>
+        <v>250.2513697370802</v>
       </c>
       <c r="E14" t="n">
         <v>355.0091537477815</v>
@@ -1622,10 +1622,10 @@
         <v>384.0005093289731</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6865480628401</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6557134484456</v>
+        <v>14.65571344844562</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>82.26654546369551</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U14" t="n">
         <v>224.0739556344217</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8310421456546</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>322.3197523929327</v>
@@ -1673,7 +1673,7 @@
         <v>342.8098843539887</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3167223315733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         <v>152.910763857457</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>38.6752386727539</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.694256693732</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5127463220888</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4998316984509</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1045919345479</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8337985898405</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>69.43120408535776</v>
@@ -1816,7 +1816,7 @@
         <v>162.8478090069616</v>
       </c>
       <c r="T16" t="n">
-        <v>95.0459231701488</v>
+        <v>192.6277329516889</v>
       </c>
       <c r="U16" t="n">
         <v>259.2906218811326</v>
@@ -1850,13 +1850,13 @@
         <v>280.7866886776101</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>308.0340171291889</v>
       </c>
       <c r="F17" t="n">
         <v>332.9796927986386</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0253727103806</v>
+        <v>3.988230719931998</v>
       </c>
       <c r="H17" t="n">
         <v>220.7114114442476</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29140884510295</v>
+        <v>35.29140884510298</v>
       </c>
       <c r="T17" t="n">
         <v>130.0216171965473</v>
@@ -1904,7 +1904,7 @@
         <v>253.855905527062</v>
       </c>
       <c r="W17" t="n">
-        <v>250.3414909130809</v>
+        <v>275.3446157743401</v>
       </c>
       <c r="X17" t="n">
         <v>295.8347477353961</v>
@@ -2002,25 +2002,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35046815555495</v>
+        <v>93.35046815555496</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71912007513947</v>
+        <v>74.71912007513949</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53760970349629</v>
+        <v>72.5376097034963</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52469507985836</v>
+        <v>71.52469507985838</v>
       </c>
       <c r="G19" t="n">
-        <v>92.12945531595534</v>
+        <v>92.12945531595535</v>
       </c>
       <c r="H19" t="n">
-        <v>70.8586619712479</v>
+        <v>70.85866197124791</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45606746676521</v>
+        <v>22.45606746676523</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03579972697445</v>
+        <v>77.45260971959964</v>
       </c>
       <c r="S19" t="n">
         <v>115.872672388369</v>
@@ -2056,7 +2056,7 @@
         <v>145.6525963330963</v>
       </c>
       <c r="U19" t="n">
-        <v>274.7322952551654</v>
+        <v>212.31548526254</v>
       </c>
       <c r="V19" t="n">
         <v>178.2412903807551</v>
@@ -2084,7 +2084,7 @@
         <v>291.3765388279347</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7866886776101</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>308.0340171291889</v>
@@ -2093,7 +2093,7 @@
         <v>332.9796927986386</v>
       </c>
       <c r="G20" t="n">
-        <v>3.988230719931998</v>
+        <v>337.0253727103806</v>
       </c>
       <c r="H20" t="n">
         <v>220.7114114442476</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29140884510295</v>
+        <v>35.29140884510296</v>
       </c>
       <c r="T20" t="n">
         <v>130.0216171965473</v>
@@ -2138,7 +2138,7 @@
         <v>177.0988190158291</v>
       </c>
       <c r="V20" t="n">
-        <v>253.855905527062</v>
+        <v>201.6054522142226</v>
       </c>
       <c r="W20" t="n">
         <v>275.3446157743401</v>
@@ -2239,25 +2239,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C22" t="n">
-        <v>155.7672781481804</v>
+        <v>93.35046815555496</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71912007513947</v>
+        <v>74.71912007513949</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53760970349629</v>
+        <v>72.5376097034963</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52469507985836</v>
+        <v>71.52469507985838</v>
       </c>
       <c r="G22" t="n">
-        <v>92.12945531595534</v>
+        <v>92.12945531595535</v>
       </c>
       <c r="H22" t="n">
-        <v>70.8586619712479</v>
+        <v>70.85866197124791</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45606746676521</v>
+        <v>22.45606746676523</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03579972697445</v>
+        <v>15.03579972697446</v>
       </c>
       <c r="S22" t="n">
         <v>115.872672388369</v>
@@ -2305,7 +2305,7 @@
         <v>151.8133024459643</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6883004090219</v>
+        <v>207.1051104016472</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29140884510295</v>
+        <v>35.29140884510298</v>
       </c>
       <c r="T23" t="n">
         <v>130.0216171965473</v>
@@ -2476,25 +2476,25 @@
         <v>105.9356272388644</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35046815555495</v>
+        <v>93.35046815555496</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71912007513947</v>
+        <v>74.71912007513949</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53760970349629</v>
+        <v>72.5376097034963</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52469507985836</v>
+        <v>71.52469507985838</v>
       </c>
       <c r="G25" t="n">
-        <v>92.12945531595534</v>
+        <v>92.12945531595535</v>
       </c>
       <c r="H25" t="n">
-        <v>70.8586619712479</v>
+        <v>70.85866197124791</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45606746676521</v>
+        <v>22.45606746676523</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03579972697445</v>
+        <v>15.03579972697446</v>
       </c>
       <c r="S25" t="n">
-        <v>178.2894823809941</v>
+        <v>115.872672388369</v>
       </c>
       <c r="T25" t="n">
         <v>145.6525963330963</v>
@@ -2539,7 +2539,7 @@
         <v>212.6266453935181</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8133024459643</v>
+        <v>214.2301124385895</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6883004090219</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3010,7 +3010,7 @@
         <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179981</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
@@ -3035,7 +3035,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.95523345367</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.228474690936</v>
+        <v>1931.404827248066</v>
       </c>
       <c r="C11" t="n">
-        <v>1349.45910555303</v>
+        <v>1589.63545811016</v>
       </c>
       <c r="D11" t="n">
-        <v>1018.386554748785</v>
+        <v>1258.562907305915</v>
       </c>
       <c r="E11" t="n">
-        <v>659.7914499530457</v>
+        <v>899.9678025101759</v>
       </c>
       <c r="F11" t="n">
-        <v>659.7914499530457</v>
+        <v>516.1750455230738</v>
       </c>
       <c r="G11" t="n">
-        <v>271.9121476005475</v>
+        <v>128.2957431705753</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508300938771</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723701125499</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.723701125499</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.853961584433</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="W11" t="n">
-        <v>2759.853961584433</v>
+        <v>3000.030314141563</v>
       </c>
       <c r="X11" t="n">
-        <v>2413.581351125859</v>
+        <v>2653.757703682989</v>
       </c>
       <c r="Y11" t="n">
-        <v>2050.635166952552</v>
+        <v>2290.811519509683</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064539</v>
       </c>
       <c r="I12" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>920.7416649986305</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>1159.005863978978</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5185,7 +5185,7 @@
         <v>515.8751733091501</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1783736137451</v>
+        <v>396.1783736137452</v>
       </c>
       <c r="G13" t="n">
         <v>255.6686847909695</v>
@@ -5194,13 +5194,13 @@
         <v>136.6446458113327</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2867530403544</v>
+        <v>138.2867530403545</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9259401504663</v>
+        <v>368.9259401504664</v>
       </c>
       <c r="L13" t="n">
         <v>712.1377427601981</v>
@@ -5209,13 +5209,13 @@
         <v>1082.946792520982</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.007173388083</v>
+        <v>1451.007173388082</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.988776469732</v>
+        <v>1776.988776469731</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.248281064627</v>
+        <v>2036.248281064626</v>
       </c>
       <c r="Q13" t="n">
         <v>2140.510581378377</v>
@@ -5224,7 +5224,7 @@
         <v>2077.87327193841</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.380535567742</v>
+        <v>1913.380535567741</v>
       </c>
       <c r="T13" t="n">
         <v>1718.807067939773</v>
@@ -5233,7 +5233,7 @@
         <v>1456.897348867922</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.406008464541</v>
+        <v>1317.940985086459</v>
       </c>
       <c r="W13" t="n">
         <v>1055.716962852004</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1677.506930374558</v>
+        <v>1806.131562014041</v>
       </c>
       <c r="C14" t="n">
-        <v>1677.506930374558</v>
+        <v>1464.362192876135</v>
       </c>
       <c r="D14" t="n">
-        <v>1481.973484114276</v>
+        <v>1211.583031525549</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.378379318537</v>
+        <v>852.9879267298098</v>
       </c>
       <c r="F14" t="n">
-        <v>739.5856223314347</v>
+        <v>469.1951697427077</v>
       </c>
       <c r="G14" t="n">
-        <v>351.7063199789366</v>
+        <v>81.31586739020931</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31586739020928</v>
+        <v>81.31586739020931</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5279,25 +5279,25 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5306,22 +5306,22 @@
         <v>3242.508300938771</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.508300938771</v>
+        <v>3063.723701125499</v>
       </c>
       <c r="U14" t="n">
-        <v>3016.170972015113</v>
+        <v>2837.386372201841</v>
       </c>
       <c r="V14" t="n">
-        <v>2712.301232474048</v>
+        <v>2837.386372201841</v>
       </c>
       <c r="W14" t="n">
-        <v>2386.725725006439</v>
+        <v>2511.810864734232</v>
       </c>
       <c r="X14" t="n">
-        <v>2040.453114547865</v>
+        <v>2165.538254275657</v>
       </c>
       <c r="Y14" t="n">
-        <v>1677.506930374558</v>
+        <v>2165.538254275657</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>516.8983193936326</v>
+        <v>418.3308347658144</v>
       </c>
       <c r="C16" t="n">
-        <v>516.8983193936326</v>
+        <v>379.264937116568</v>
       </c>
       <c r="D16" t="n">
-        <v>516.8983193936326</v>
+        <v>256.3414455067376</v>
       </c>
       <c r="E16" t="n">
-        <v>396.178373613745</v>
+        <v>256.3414455067376</v>
       </c>
       <c r="F16" t="n">
-        <v>396.178373613745</v>
+        <v>136.6446458113327</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6686847909695</v>
+        <v>136.6446458113327</v>
       </c>
       <c r="H16" t="n">
         <v>136.6446458113327</v>
@@ -5434,16 +5434,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2867530403545</v>
+        <v>138.2867530403544</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9259401504664</v>
+        <v>368.9259401504663</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1377427601982</v>
+        <v>712.1377427601979</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946792520983</v>
+        <v>1082.946792520982</v>
       </c>
       <c r="N16" t="n">
         <v>1451.007173388083</v>
@@ -5464,22 +5464,22 @@
         <v>1913.380535567742</v>
       </c>
       <c r="T16" t="n">
-        <v>1817.374552567592</v>
+        <v>1718.807067939773</v>
       </c>
       <c r="U16" t="n">
-        <v>1555.464833495741</v>
+        <v>1456.897348867922</v>
       </c>
       <c r="V16" t="n">
-        <v>1327.973493092359</v>
+        <v>1229.406008464541</v>
       </c>
       <c r="W16" t="n">
-        <v>1065.749470857904</v>
+        <v>967.1819862300855</v>
       </c>
       <c r="X16" t="n">
-        <v>864.9530677623918</v>
+        <v>766.3855831345734</v>
       </c>
       <c r="Y16" t="n">
-        <v>671.3536364213671</v>
+        <v>572.7861517935487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1544.168383562296</v>
+        <v>1518.912701884256</v>
       </c>
       <c r="C17" t="n">
-        <v>1249.848647372463</v>
+        <v>1224.592965694422</v>
       </c>
       <c r="D17" t="n">
-        <v>966.2257295162915</v>
+        <v>940.9700478382506</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2257295162915</v>
+        <v>629.8245759905853</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8826054772626</v>
+        <v>293.4814519515567</v>
       </c>
       <c r="G17" t="n">
         <v>289.4529360728376</v>
@@ -5516,7 +5516,7 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5546,19 +5546,19 @@
         <v>3158.622967021646</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.735271046061</v>
+        <v>2979.73527104606</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.315164453069</v>
+        <v>2723.315164453068</v>
       </c>
       <c r="W17" t="n">
-        <v>2470.444971611573</v>
+        <v>2445.189289933533</v>
       </c>
       <c r="X17" t="n">
-        <v>2171.621994101073</v>
+        <v>2146.366312423032</v>
       </c>
       <c r="Y17" t="n">
-        <v>1856.12544287584</v>
+        <v>1830.869761197799</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1142151877566</v>
+        <v>569.1142151877568</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8208130104284</v>
+        <v>474.8208130104286</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3469543486714</v>
+        <v>399.3469543486715</v>
       </c>
       <c r="E19" t="n">
-        <v>326.076641516857</v>
+        <v>326.0766415168571</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8294747695253</v>
+        <v>253.8294747695254</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7694188948229</v>
+        <v>160.769418894823</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19501286325941</v>
+        <v>89.19501286325942</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5695,13 +5695,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.106871596599</v>
+        <v>1849.059588775766</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063768174005</v>
+        <v>1732.016485353171</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.939933494109</v>
+        <v>1584.892650673276</v>
       </c>
       <c r="U19" t="n">
         <v>1370.432564549498</v>
@@ -5710,13 +5710,13 @@
         <v>1190.39085709419</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6164678078077</v>
+        <v>975.6164678078079</v>
       </c>
       <c r="X19" t="n">
-        <v>822.269697660369</v>
+        <v>822.2696976603693</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1198992674176</v>
+        <v>676.1198992674178</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1518.912701884256</v>
+        <v>1571.69093755379</v>
       </c>
       <c r="C20" t="n">
-        <v>1224.592965694423</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="D20" t="n">
-        <v>940.9700478382515</v>
+        <v>1277.371201363957</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8245759905858</v>
+        <v>966.2257295162915</v>
       </c>
       <c r="F20" t="n">
-        <v>293.4814519515572</v>
+        <v>629.8826054772626</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4529360728376</v>
+        <v>289.4529360728377</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5762,7 +5762,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
         <v>2623.528026939508</v>
@@ -5786,16 +5786,16 @@
         <v>2979.735271046061</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.315164453069</v>
+        <v>2776.093400122603</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.189289933533</v>
+        <v>2497.967525603067</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.366312423032</v>
+        <v>2199.144548092566</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.869761197799</v>
+        <v>1883.647996867333</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1614980085905</v>
+        <v>569.1142151877568</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8208130104284</v>
+        <v>474.8208130104286</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3469543486714</v>
+        <v>399.3469543486715</v>
       </c>
       <c r="E22" t="n">
-        <v>326.076641516857</v>
+        <v>326.0766415168571</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8294747695253</v>
+        <v>253.8294747695254</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7694188948229</v>
+        <v>160.769418894823</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19501286325941</v>
+        <v>89.19501286325942</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5953,7 +5953,7 @@
         <v>885.3169804812029</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1671820882515</v>
+        <v>676.1198992674178</v>
       </c>
     </row>
     <row r="23">
@@ -5972,10 +5972,10 @@
         <v>1284.236531027747</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0910591800813</v>
+        <v>973.0910591800817</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7479351410524</v>
+        <v>636.7479351410528</v>
       </c>
       <c r="G23" t="n">
         <v>296.3182657366275</v>
@@ -5987,25 +5987,25 @@
         <v>73.37744609597335</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2565770549988</v>
+        <v>429.6622260753518</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0759507448453</v>
+        <v>763.4815997651983</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110163993254</v>
+        <v>1214.515813013607</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642068665179</v>
+        <v>1748.047717685532</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.420885723961</v>
+        <v>2294.826534744314</v>
       </c>
       <c r="O23" t="n">
-        <v>2691.543413701446</v>
+        <v>2797.799005623651</v>
       </c>
       <c r="P23" t="n">
-        <v>3086.317780058624</v>
+        <v>3192.573371980829</v>
       </c>
       <c r="Q23" t="n">
         <v>3544.795982567612</v>
@@ -6026,7 +6026,7 @@
         <v>3066.581647642565</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.455773123029</v>
+        <v>2788.45577312303</v>
       </c>
       <c r="X23" t="n">
         <v>2489.632795612528</v>
@@ -6124,13 +6124,13 @@
         <v>575.9795448515467</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6861426742184</v>
+        <v>481.6861426742185</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2122840124614</v>
+        <v>406.2122840124615</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9419711806469</v>
+        <v>332.941971180647</v>
       </c>
       <c r="F25" t="n">
         <v>260.6948044333153</v>
@@ -6139,7 +6139,7 @@
         <v>167.6347485586129</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06034252704933</v>
+        <v>96.06034252704934</v>
       </c>
       <c r="I25" t="n">
         <v>73.37744609597335</v>
@@ -6172,19 +6172,19 @@
         <v>1918.972201260389</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.881815016961</v>
+        <v>1801.929097837794</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.757980337066</v>
+        <v>1654.805263157899</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.297894213288</v>
+        <v>1440.345177034121</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.25618675798</v>
+        <v>1260.303469578813</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4817974715978</v>
+        <v>1045.529080292431</v>
       </c>
       <c r="X25" t="n">
         <v>829.1350273241592</v>
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>343.9659746953262</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>677.7853483851727</v>
+        <v>632.2149454738376</v>
       </c>
       <c r="L26" t="n">
-        <v>1128.819561633582</v>
+        <v>1496.733761127192</v>
       </c>
       <c r="M26" t="n">
-        <v>1662.351466305506</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N26" t="n">
-        <v>2642.103738532153</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.07620941149</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873065</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.774934596031</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697162</v>
@@ -6446,10 +6446,10 @@
         <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467802</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6461,28 +6461,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>697.2742011480912</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1561.793016801446</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2095.324921473371</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2642.103738532153</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>3145.07620941149</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834459</v>
@@ -6491,19 +6491,19 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
         <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805549</v>
@@ -6540,10 +6540,10 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803191</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
         <v>549.9474938257041</v>
@@ -6607,7 +6607,7 @@
         <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6622,7 +6622,7 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
         <v>786.3326864982171</v>
@@ -6640,16 +6640,16 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6658,13 +6658,13 @@
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519667</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6683,10 +6683,10 @@
         <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6701,25 +6701,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>1092.155029011367</v>
+        <v>1045.699547878784</v>
       </c>
       <c r="L32" t="n">
-        <v>1543.189242259776</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M32" t="n">
-        <v>2076.7211469317</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N32" t="n">
-        <v>2642.103738532153</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.07620941149</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768668</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834459</v>
@@ -6783,7 +6783,7 @@
         <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6856,10 +6856,10 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6935,25 +6935,25 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J35" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M35" t="n">
-        <v>1588.411539465894</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N35" t="n">
-        <v>2568.163811692541</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O35" t="n">
-        <v>3290.208794490543</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P35" t="n">
-        <v>3684.983160847721</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q35" t="n">
         <v>3933.269522603403</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E37" t="n">
         <v>449.484033191384</v>
@@ -7084,10 +7084,10 @@
         <v>350.0437186415469</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668918</v>
@@ -7102,7 +7102,7 @@
         <v>786.3326864982168</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7123,7 +7123,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038485</v>
@@ -7175,25 +7175,25 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>603.8454215455611</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L38" t="n">
-        <v>1054.87963479397</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M38" t="n">
-        <v>1928.524582776558</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N38" t="n">
-        <v>2475.303399835341</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164796</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834459</v>
@@ -7202,7 +7202,7 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
@@ -7211,13 +7211,13 @@
         <v>3346.282596468335</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="39">
@@ -7251,13 +7251,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7339,7 +7339,7 @@
         <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467795</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455611</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.87963479397</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N41" t="n">
-        <v>2568.163811692541</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164795</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3474.791320094415</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603403</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L42" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7564,7 +7564,7 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J43" t="n">
         <v>172.7749345960314</v>
@@ -7649,19 +7649,19 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>878.8992091819714</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1329.93342243038</v>
+        <v>1468.364237198916</v>
       </c>
       <c r="M44" t="n">
-        <v>1863.465327102305</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N44" t="n">
-        <v>2410.244144161087</v>
+        <v>2548.674958929623</v>
       </c>
       <c r="O44" t="n">
-        <v>3290.208794490542</v>
+        <v>3051.64742980896</v>
       </c>
       <c r="P44" t="n">
         <v>3684.98316084772</v>
@@ -7682,7 +7682,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7725,13 +7725,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L45" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913846</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643398</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I46" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7825,31 +7825,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R46" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S46" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U46" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X46" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519668</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>212.1614152764231</v>
+        <v>212.1614152764236</v>
       </c>
       <c r="L5" t="n">
-        <v>225.9304893188439</v>
+        <v>225.9304893188445</v>
       </c>
       <c r="M5" t="n">
-        <v>219.401870760398</v>
+        <v>219.4018707603987</v>
       </c>
       <c r="N5" t="n">
-        <v>218.2916099030235</v>
+        <v>218.2916099030242</v>
       </c>
       <c r="O5" t="n">
-        <v>219.5965380661486</v>
+        <v>219.5965380661493</v>
       </c>
       <c r="P5" t="n">
-        <v>222.2700605111177</v>
+        <v>222.2700605111183</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>123.6869003357293</v>
+        <v>123.6869003357296</v>
       </c>
       <c r="K6" t="n">
-        <v>132.4563458344806</v>
+        <v>132.456345834481</v>
       </c>
       <c r="L6" t="n">
-        <v>131.3134574915378</v>
+        <v>131.3134574915383</v>
       </c>
       <c r="M6" t="n">
-        <v>133.6842191437698</v>
+        <v>133.6842191437704</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6682558511132</v>
+        <v>122.6682558511138</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6617264891797</v>
+        <v>134.6617264891802</v>
       </c>
       <c r="P6" t="n">
-        <v>127.6062572357708</v>
+        <v>127.6062572357712</v>
       </c>
       <c r="Q6" t="n">
-        <v>135.7248343369105</v>
+        <v>135.7248343369108</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>130.7280129970309</v>
+        <v>130.7280129970312</v>
       </c>
       <c r="M7" t="n">
-        <v>134.543165321606</v>
+        <v>134.5431653216063</v>
       </c>
       <c r="N7" t="n">
-        <v>123.4071347145261</v>
+        <v>123.4071347145264</v>
       </c>
       <c r="O7" t="n">
-        <v>134.5047345663801</v>
+        <v>134.5047345663804</v>
       </c>
       <c r="P7" t="n">
-        <v>134.3465531299171</v>
+        <v>134.3465531299173</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9410,13 +9410,13 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>61.76773444257367</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>104.9861099304048</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>74.68679478748652</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>28.65608477603689</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>94.37250464902024</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>18.79169145623246</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10595,16 +10595,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>221.2853655744091</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>165.3902622431548</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10823,28 +10823,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>343.5485285966304</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>122.1718867553238</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11069,19 +11069,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>287.0017854473906</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>277.2206841544144</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>277.8321087236469</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,10 +11309,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>240.9710754359418</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9548294172311</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>64.34051720615966</v>
+        <v>206.5207575918322</v>
       </c>
       <c r="I11" t="n">
         <v>14.65571344844562</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26654546369551</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>176.9967538151398</v>
       </c>
       <c r="U11" t="n">
         <v>224.0739556344217</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3197523929327</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23473,10 +23473,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>87.64962685569979</v>
       </c>
       <c r="W13" t="n">
-        <v>87.64962685569947</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>198.7884390645568</v>
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8126253390002</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3516754465272</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>134.1837134985227</v>
+        <v>77.51045555912248</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6865480628401</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9967538151398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8310421456546</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3167223315733</v>
       </c>
     </row>
     <row r="15">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3256047741475</v>
+        <v>101.6503661013936</v>
       </c>
       <c r="D16" t="n">
-        <v>121.694256693732</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5127463220888</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4998316984509</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1045919345479</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.8337985898405</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>97.58180978154007</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0340171291889</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0371419904486</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>25.00312486125918</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>280.7866886776101</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>333.0371419904486</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>52.2504533128394</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1177026.127844739</v>
+        <v>1177026.12784474</v>
       </c>
     </row>
     <row r="6">
@@ -26332,16 +26332,16 @@
         <v>119179.8020042764</v>
       </c>
       <c r="I2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="J2" t="n">
-        <v>123156.2654796424</v>
+        <v>123156.2654796423</v>
       </c>
       <c r="K2" t="n">
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796424</v>
@@ -26366,10 +26366,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14118.19859945433</v>
+        <v>14118.1985994534</v>
       </c>
       <c r="D3" t="n">
-        <v>16714.64353072205</v>
+        <v>16714.64353072293</v>
       </c>
       <c r="E3" t="n">
         <v>1117168.84147192</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>22820.44161905848</v>
       </c>
       <c r="J3" t="n">
-        <v>25410.44272728114</v>
+        <v>25410.44272728109</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487404</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>207188.5682920729</v>
+        <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>430898.5094426759</v>
       </c>
       <c r="C4" t="n">
-        <v>426739.1543200267</v>
+        <v>426739.154320027</v>
       </c>
       <c r="D4" t="n">
         <v>421594.991239873</v>
@@ -26430,19 +26430,19 @@
         <v>37585.46710210903</v>
       </c>
       <c r="G4" t="n">
+        <v>74613.22686521034</v>
+      </c>
+      <c r="H4" t="n">
         <v>74613.22686521035</v>
       </c>
-      <c r="H4" t="n">
-        <v>74613.22686521037</v>
-      </c>
       <c r="I4" t="n">
-        <v>85473.0036591391</v>
+        <v>85473.00365913907</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646589</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646595</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="L4" t="n">
         <v>80755.36360646592</v>
@@ -26470,13 +26470,13 @@
         <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>33965.59259112993</v>
+        <v>33965.59259112991</v>
       </c>
       <c r="D5" t="n">
         <v>34391.06348367693</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.58029657602</v>
+        <v>76569.58029657605</v>
       </c>
       <c r="F5" t="n">
         <v>76569.58029657604</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-341634.6586351201</v>
+        <v>-341639.0722129882</v>
       </c>
       <c r="C6" t="n">
-        <v>-351930.7504991848</v>
+        <v>-351935.1516736545</v>
       </c>
       <c r="D6" t="n">
-        <v>-349807.5664262017</v>
+        <v>-349811.9519870621</v>
       </c>
       <c r="E6" t="n">
-        <v>-1121892.60533268</v>
+        <v>-1122121.355031708</v>
       </c>
       <c r="F6" t="n">
-        <v>-4723.763860759282</v>
+        <v>-4952.513559787893</v>
       </c>
       <c r="G6" t="n">
-        <v>-73532.26721277238</v>
+        <v>-73598.54160402845</v>
       </c>
       <c r="H6" t="n">
-        <v>-35952.15791789842</v>
+        <v>-36018.43230915451</v>
       </c>
       <c r="I6" t="n">
         <v>-70873.56339999994</v>
       </c>
       <c r="J6" t="n">
-        <v>-72387.48252891078</v>
+        <v>-72387.48252891077</v>
       </c>
       <c r="K6" t="n">
-        <v>-46977.03980162967</v>
+        <v>-46977.03980162965</v>
       </c>
       <c r="L6" t="n">
-        <v>-84557.14909650358</v>
+        <v>-84557.14909650365</v>
       </c>
       <c r="M6" t="n">
-        <v>-254165.6080937026</v>
+        <v>-254165.6080937027</v>
       </c>
       <c r="N6" t="n">
         <v>-46977.03980162974</v>
       </c>
       <c r="O6" t="n">
-        <v>-46977.03980162973</v>
+        <v>-46977.03980162974</v>
       </c>
       <c r="P6" t="n">
-        <v>-46977.03980162964</v>
+        <v>-46977.03980162962</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859255</v>
@@ -26738,7 +26738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953848</v>
+        <v>15.50424729953744</v>
       </c>
       <c r="D3" t="n">
         <v>35.02126071912533</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26811,7 +26811,7 @@
         <v>917.2180761996668</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
         <v>1014.336461208615</v>
@@ -26826,7 +26826,7 @@
         <v>1014.336461208615</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>15.50424729953848</v>
+        <v>15.50424729953744</v>
       </c>
       <c r="D3" t="n">
-        <v>19.51701341958685</v>
+        <v>19.51701341958788</v>
       </c>
       <c r="E3" t="n">
         <v>1054.755439874173</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>85.81662079737396</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11838500894783</v>
+        <v>97.1183850089476</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27634,10 +27634,10 @@
         <v>338.8364790096108</v>
       </c>
       <c r="I5" t="n">
-        <v>208.0729649713488</v>
+        <v>208.072964971349</v>
       </c>
       <c r="J5" t="n">
-        <v>6.659224593851899</v>
+        <v>6.65922459385225</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27658,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.259908116783858</v>
+        <v>3.259908116784305</v>
       </c>
       <c r="R5" t="n">
-        <v>145.9538669886688</v>
+        <v>145.953866988669</v>
       </c>
       <c r="S5" t="n">
-        <v>207.5997558763429</v>
+        <v>207.599755876343</v>
       </c>
       <c r="T5" t="n">
         <v>222.8230059759757</v>
@@ -27710,10 +27710,10 @@
         <v>137.3101684048682</v>
       </c>
       <c r="H6" t="n">
-        <v>111.9133654388211</v>
+        <v>111.9133654388212</v>
       </c>
       <c r="I6" t="n">
-        <v>88.24844095234548</v>
+        <v>88.24844095234556</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>98.08728580573495</v>
+        <v>98.08728580573509</v>
       </c>
       <c r="S6" t="n">
         <v>171.0637325442761</v>
@@ -27749,7 +27749,7 @@
         <v>200.0303097960643</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9391880837154</v>
+        <v>225.9391880837155</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27795,10 +27795,10 @@
         <v>154.609687221244</v>
       </c>
       <c r="J7" t="n">
-        <v>91.38251566997587</v>
+        <v>91.38251566997602</v>
       </c>
       <c r="K7" t="n">
-        <v>19.02122493263528</v>
+        <v>19.0212249326355</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>83.82090190946407</v>
+        <v>83.82090190946423</v>
       </c>
       <c r="R7" t="n">
-        <v>176.0362765059643</v>
+        <v>176.0362765059644</v>
       </c>
       <c r="S7" t="n">
-        <v>223.5293580029851</v>
+        <v>223.5293580029852</v>
       </c>
       <c r="T7" t="n">
         <v>227.8261304736785</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92121632448033</v>
+        <v>26.92121632448032</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89635294307288</v>
+        <v>11.47954295044769</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="U19" t="n">
-        <v>11.47954295044752</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="C22" t="n">
-        <v>11.47954295044744</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89635294307288</v>
+        <v>11.47954295044761</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="S25" t="n">
-        <v>11.47954295044781</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89635294307288</v>
+        <v>11.47954295044764</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89635294307288</v>
+        <v>73.89635294307287</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859223</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859182</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -30411,7 +30411,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859222</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N40" t="n">
         <v>46.97513661859255</v>
@@ -30420,7 +30420,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q40" t="n">
         <v>46.97513661859255</v>
@@ -30657,10 +30657,10 @@
         <v>46.97513661859255</v>
       </c>
       <c r="P43" t="n">
+        <v>46.97513661859233</v>
+      </c>
+      <c r="Q43" t="n">
         <v>46.97513661859255</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>46.9751366185921</v>
       </c>
       <c r="R43" t="n">
         <v>46.97513661859255</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06232863235995362</v>
+        <v>0.06232863235994948</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6383231061563752</v>
+        <v>0.6383231061563328</v>
       </c>
       <c r="I5" t="n">
-        <v>2.402924599057114</v>
+        <v>2.402924599056955</v>
       </c>
       <c r="J5" t="n">
-        <v>5.290064760760618</v>
+        <v>5.290064760760267</v>
       </c>
       <c r="K5" t="n">
-        <v>7.928435768557457</v>
+        <v>7.92843576855693</v>
       </c>
       <c r="L5" t="n">
-        <v>9.835925651143389</v>
+        <v>9.835925651142736</v>
       </c>
       <c r="M5" t="n">
-        <v>10.94436246687471</v>
+        <v>10.94436246687399</v>
       </c>
       <c r="N5" t="n">
-        <v>11.12145369356743</v>
+        <v>11.12145369356669</v>
       </c>
       <c r="O5" t="n">
-        <v>10.50167335553814</v>
+        <v>10.50167335553745</v>
       </c>
       <c r="P5" t="n">
-        <v>8.962935244151788</v>
+        <v>8.962935244151192</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.730791097760946</v>
+        <v>6.730791097760499</v>
       </c>
       <c r="R5" t="n">
-        <v>3.91525095248094</v>
+        <v>3.91525095248068</v>
       </c>
       <c r="S5" t="n">
-        <v>1.420313709902445</v>
+        <v>1.42031370990235</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2728435881556971</v>
+        <v>0.272843588155679</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004986290588796289</v>
+        <v>0.004986290588795957</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03334875834240351</v>
+        <v>0.0333487583424013</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3220787976753182</v>
+        <v>0.3220787976752968</v>
       </c>
       <c r="I6" t="n">
-        <v>1.148191899069595</v>
+        <v>1.148191899069519</v>
       </c>
       <c r="J6" t="n">
-        <v>3.150726330937343</v>
+        <v>3.150726330937133</v>
       </c>
       <c r="K6" t="n">
-        <v>5.385093139878379</v>
+        <v>5.385093139878021</v>
       </c>
       <c r="L6" t="n">
-        <v>7.240922288336343</v>
+        <v>7.240922288335861</v>
       </c>
       <c r="M6" t="n">
-        <v>8.449814778248468</v>
+        <v>8.449814778247907</v>
       </c>
       <c r="N6" t="n">
-        <v>8.673456232220115</v>
+        <v>8.673456232219538</v>
       </c>
       <c r="O6" t="n">
-        <v>7.934517955264751</v>
+        <v>7.934517955264225</v>
       </c>
       <c r="P6" t="n">
-        <v>6.368150178559493</v>
+        <v>6.36815017855907</v>
       </c>
       <c r="Q6" t="n">
-        <v>4.256939749111018</v>
+        <v>4.256939749110734</v>
       </c>
       <c r="R6" t="n">
-        <v>2.070548346908177</v>
+        <v>2.070548346908039</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6194385595617491</v>
+        <v>0.6194385595617079</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1344188987573194</v>
+        <v>0.1344188987573104</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002193997259368653</v>
+        <v>0.002193997259368507</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02795847873687266</v>
+        <v>0.0279584787368708</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2485762927696498</v>
+        <v>0.2485762927696333</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8407877060143162</v>
+        <v>0.8407877060142603</v>
       </c>
       <c r="J7" t="n">
-        <v>1.976664446696897</v>
+        <v>1.976664446696765</v>
       </c>
       <c r="K7" t="n">
-        <v>3.248266893247568</v>
+        <v>3.248266893247352</v>
       </c>
       <c r="L7" t="n">
-        <v>4.156663284207414</v>
+        <v>4.156663284207138</v>
       </c>
       <c r="M7" t="n">
-        <v>4.382618625999047</v>
+        <v>4.382618625998756</v>
       </c>
       <c r="N7" t="n">
-        <v>4.278409750707071</v>
+        <v>4.278409750706786</v>
       </c>
       <c r="O7" t="n">
-        <v>3.951803885462693</v>
+        <v>3.95180388546243</v>
       </c>
       <c r="P7" t="n">
-        <v>3.381450919230488</v>
+        <v>3.381450919230264</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.34114134223031</v>
+        <v>2.341141342230154</v>
       </c>
       <c r="R7" t="n">
-        <v>1.257114871205201</v>
+        <v>1.257114871205118</v>
       </c>
       <c r="S7" t="n">
-        <v>0.4872400339871351</v>
+        <v>0.4872400339871027</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1194589546030013</v>
+        <v>0.1194589546029934</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001525007931102147</v>
+        <v>0.001525007931102045</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32333,7 +32333,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33260,13 +33260,13 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233475</v>
@@ -33518,7 +33518,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33746,7 +33746,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34457,7 +34457,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -35571,7 +35571,7 @@
         <v>232.9688758687999</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M13" t="n">
         <v>374.5545957179642</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49963293754658</v>
+        <v>72.49963293754655</v>
       </c>
       <c r="K16" t="n">
         <v>232.9688758687999</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6785884946785</v>
+        <v>346.6785884946784</v>
       </c>
       <c r="M16" t="n">
         <v>374.5545957179642</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -35981,7 +35981,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,13 +36130,13 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36370,13 +36370,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>569.8207353307928</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>355.7804147341243</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>265.4737957561991</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>365.8473713314374</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
@@ -36616,7 +36616,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165846</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36762,7 +36762,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>431.5637912044207</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36847,13 +36847,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36999,7 +36999,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37069,7 +37069,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>614.4119707098149</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37078,7 +37078,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>571.0935268691439</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
@@ -37090,7 +37090,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013292</v>
@@ -37166,7 +37166,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
@@ -37315,16 +37315,16 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>729.3383664626282</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>416.1845670468743</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37394,7 +37394,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37543,28 +37543,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>882.4696444268571</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>520.9338729746956</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359772</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120761</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861327</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37789,19 +37789,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>795.0547863356097</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>675.9826703737863</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37953,10 +37953,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>615.0233952790473</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38029,10 +38029,10 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>639.7330616553137</v>
       </c>
       <c r="Q44" t="n">
         <v>250.7943048037195</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38105,7 +38105,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
